--- a/wwwroot/Informes/Informe_INDER_20250516.xlsx
+++ b/wwwroot/Informes/Informe_INDER_20250516.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
   <si>
     <t>INFORME DIARIO INDER - 16/05/2025</t>
   </si>
@@ -44,15 +44,21 @@
     <t>CELULAR</t>
   </si>
   <si>
-    <t>EDAD</t>
-  </si>
-  <si>
     <t>LUGAR</t>
   </si>
   <si>
     <t>FECHA REGISTRO</t>
   </si>
   <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
+    <t>TOTAL MONTO</t>
+  </si>
+  <si>
+    <t>FECHA TRANSACCIÓN</t>
+  </si>
+  <si>
     <t xml:space="preserve">luisa </t>
   </si>
   <si>
@@ -86,6 +92,48 @@
     <t>16/05/2025 08:05:58</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>viviana</t>
+  </si>
+  <si>
+    <t>atehortua</t>
+  </si>
+  <si>
+    <t>antonia07210218@gmail.com</t>
+  </si>
+  <si>
+    <t>cra 63b #74 16</t>
+  </si>
+  <si>
+    <t>1987-01-11</t>
+  </si>
+  <si>
+    <t>1020402667</t>
+  </si>
+  <si>
+    <t>3008810432</t>
+  </si>
+  <si>
+    <t>16/05/2025 11:29:08</t>
+  </si>
+  <si>
+    <t>Piscina</t>
+  </si>
+  <si>
+    <t>16/05/2025 11:29:29</t>
+  </si>
+  <si>
+    <t>Piscina Semiolimpica</t>
+  </si>
+  <si>
+    <t>16/05/2025 11:31:01</t>
+  </si>
+  <si>
+    <t>16/05/2025 11:32:20</t>
+  </si>
+  <si>
     <t xml:space="preserve">EDISON </t>
   </si>
   <si>
@@ -134,6 +182,18 @@
     <t>16/05/2025 10:29:33</t>
   </si>
   <si>
+    <t>16/05/2025 10:30:03</t>
+  </si>
+  <si>
+    <t>16/05/2025 10:31:08</t>
+  </si>
+  <si>
+    <t>16/05/2025 10:31:57</t>
+  </si>
+  <si>
+    <t>16/05/2025 10:32:51</t>
+  </si>
+  <si>
     <t>maria</t>
   </si>
   <si>
@@ -503,6 +563,12 @@
     <t>16/05/2025 09:54:23</t>
   </si>
   <si>
+    <t>Gimnasio</t>
+  </si>
+  <si>
+    <t>16/05/2025 09:55:39</t>
+  </si>
+  <si>
     <t>antony gerald</t>
   </si>
   <si>
@@ -644,9 +710,6 @@
     <t>1007241106</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>3002880932</t>
   </si>
   <si>
@@ -848,6 +911,33 @@
     <t>1094243270</t>
   </si>
   <si>
+    <t>Julio Cesar</t>
+  </si>
+  <si>
+    <t>Velasquez Londoño</t>
+  </si>
+  <si>
+    <t>juliocesar.velasquezlondono@gmail.com</t>
+  </si>
+  <si>
+    <t>Cra 63a #72a 156</t>
+  </si>
+  <si>
+    <t>1998-04-07</t>
+  </si>
+  <si>
+    <t>1035235591</t>
+  </si>
+  <si>
+    <t>3053909471</t>
+  </si>
+  <si>
+    <t>16/05/2025 13:03:36</t>
+  </si>
+  <si>
+    <t>16/05/2025 13:03:56</t>
+  </si>
+  <si>
     <t>hhhhhhh</t>
   </si>
   <si>
@@ -896,7 +986,7 @@
     <t>INFORME GENERADO EL:</t>
   </si>
   <si>
-    <t>16/05/2025 10:44:52</t>
+    <t>16/05/2025 14:07:15</t>
   </si>
   <si>
     <t>TOTAL DE REGISTROS:</t>
@@ -909,8 +999,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -981,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -990,14 +1081,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" xfId="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" borderId="1" applyBorder="1"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" xfId="0"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" borderId="1" applyBorder="1"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" borderId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1015,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1023,16 +1115,18 @@
   <cols>
     <col min="1" max="1" width="12.828897476196289" customWidth="1"/>
     <col min="2" max="2" width="18.726869583129883" customWidth="1"/>
-    <col min="3" max="3" width="31.99807357788086" customWidth="1"/>
+    <col min="3" max="3" width="36.57424545288086" customWidth="1"/>
     <col min="4" max="4" width="26.37632942199707" customWidth="1"/>
-    <col min="5" max="5" width="20.673730850219727" customWidth="1" style="4"/>
+    <col min="5" max="5" width="20.673730850219727" customWidth="1" style="5"/>
     <col min="6" max="6" width="19.439945220947266" customWidth="1"/>
     <col min="7" max="7" width="23.881319046020508" customWidth="1"/>
     <col min="8" max="8" width="9.729009628295898" customWidth="1"/>
     <col min="9" max="9" width="11.634980201721191" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.560853958129883" customWidth="1"/>
-    <col min="12" max="12" width="19.319225311279297" customWidth="1"/>
+    <col min="10" max="10" width="12.560853958129883" customWidth="1"/>
+    <col min="11" max="11" width="19.319225311279297" customWidth="1"/>
+    <col min="12" max="12" width="18.926366806030273" customWidth="1"/>
+    <col min="13" max="13" width="15.597840309143066" customWidth="1"/>
+    <col min="14" max="14" width="21.951631546020508" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1042,7 +1136,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="5"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1050,6 +1144,8 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" ht="25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1064,7 +1160,7 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1088,1229 +1184,1407 @@
       <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K3" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K4" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="M4" s="4">
+        <v>6000</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="M5" s="4">
+        <v>6000</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="3" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="4">
+        <v>6000</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K7" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="L8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="4">
+        <v>6000</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="3" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="4">
+        <v>6000</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="7" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="4">
+        <v>6000</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="4">
+        <v>6000</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>86</v>
+        <v>63</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K12" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>70</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K13" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>77</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K14" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K15" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>91</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K16" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>98</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K17" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K18" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K19" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K20" s="3" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>124</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J21" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K21" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>129</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J22" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K22" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J23" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K23" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>162</v>
+        <v>26</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>143</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J24" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K24" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>102</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J25" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K25" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>99</v>
+        <v>155</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J26" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="K26" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>124</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J27" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K27" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J28" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K28" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>178</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J29" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K29" s="3" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>23</v>
+        <v>183</v>
+      </c>
+      <c r="M29" s="4">
+        <v>20000</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J30" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K30" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J31" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K31" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J32" s="3"/>
+        <v>202</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K32" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>223</v>
+        <v>205</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J33" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K33" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J34" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K34" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="H35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J35" s="3"/>
+      <c r="J35" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K35" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J36" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K36" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -2318,500 +2592,912 @@
         <v>227</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E37" s="7" t="s">
         <v>230</v>
       </c>
+      <c r="E37" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="F37" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>231</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="J37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K37" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J38" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K38" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J39" s="3"/>
+        <v>246</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K39" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J40" s="3"/>
+        <v>246</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K40" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J41" s="3"/>
+        <v>246</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K41" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J42" s="3"/>
+        <v>253</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K42" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E43" s="7" t="s">
         <v>250</v>
       </c>
+      <c r="E43" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="F43" s="3" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J43" s="3"/>
+        <v>253</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K43" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="H44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="J44" s="3"/>
+      <c r="J44" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K44" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>262</v>
+        <v>250</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J45" s="3"/>
+        <v>253</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K45" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>268</v>
+        <v>250</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J46" s="3"/>
+        <v>253</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K46" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>275</v>
+        <v>257</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>276</v>
+        <v>20</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K47" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>282</v>
+        <v>263</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="J48" s="3"/>
+        <v>266</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K48" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="J51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="D52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="F52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="3" t="s">
+      <c r="H52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3" t="s">
+      <c r="J52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M54" s="4">
+        <v>6000</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B54" s="0">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="10" t="s">
-        <v>296</v>
+      <c r="I56" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B61" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="11" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A63:L63"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
